--- a/workingfolder/python/tables/NI_Est_sv.xlsx
+++ b/workingfolder/python/tables/NI_Est_sv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>NI: $\hat\sigma_{pb,SPF}$</t>
   </si>
@@ -401,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -417,230 +417,221 @@
       <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>7</v>
       </c>
+      <c r="D2">
+        <v>16.9</v>
+      </c>
       <c r="E2">
-        <v>0.05</v>
+        <v>21.44</v>
       </c>
       <c r="F2">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.54</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>5.21</v>
       </c>
       <c r="J2">
-        <v>12.09</v>
+        <v>6.05</v>
       </c>
       <c r="K2">
-        <v>12.16</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>8</v>
       </c>
+      <c r="D3">
+        <v>67.05</v>
+      </c>
       <c r="E3">
-        <v>0</v>
+        <v>146.8</v>
       </c>
       <c r="F3">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3">
+        <v>4.4</v>
+      </c>
+      <c r="J3">
+        <v>4.88</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>62.6</v>
+      </c>
+      <c r="E4">
+        <v>0.57</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>5</v>
       </c>
-      <c r="J3">
-        <v>130.13</v>
-      </c>
-      <c r="K3">
-        <v>764.51</v>
-      </c>
-      <c r="L3">
-        <v>30.99</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
+      <c r="I4">
+        <v>7.23</v>
+      </c>
+      <c r="J4">
+        <v>3.54</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="E4">
-        <v>0.16</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1.06</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>787.17</v>
+      </c>
+      <c r="E5">
+        <v>3257.84</v>
+      </c>
+      <c r="F5">
+        <v>0.06</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>5</v>
       </c>
-      <c r="J4">
-        <v>168.48</v>
-      </c>
-      <c r="K4">
-        <v>695.91</v>
-      </c>
-      <c r="L4">
-        <v>43.31</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
+      <c r="I5">
+        <v>97.72</v>
+      </c>
+      <c r="J5">
+        <v>95.73</v>
+      </c>
+      <c r="K5">
+        <v>15.61</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.22</v>
-      </c>
-      <c r="G5">
-        <v>1.06</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>126.68</v>
+      </c>
+      <c r="E6">
+        <v>0.57</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>5</v>
       </c>
-      <c r="J5">
-        <v>166.89</v>
-      </c>
-      <c r="K5">
-        <v>6.1</v>
-      </c>
-      <c r="L5">
-        <v>0.03</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.24</v>
-      </c>
-      <c r="G6">
-        <v>1.07</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
       <c r="I6">
-        <v>5</v>
+        <v>215.54</v>
       </c>
       <c r="J6">
-        <v>362.11</v>
+        <v>3.64</v>
       </c>
       <c r="K6">
-        <v>6.26</v>
+        <v>0.01</v>
       </c>
       <c r="L6">
-        <v>0.04</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
         <v>2</v>
       </c>
     </row>
